--- a/medicine/Enfance/Anne_Pierjean/Anne_Pierjean.xlsx
+++ b/medicine/Enfance/Anne_Pierjean/Anne_Pierjean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Pierjean, de son vrai nom Marie-Louise Robert épouse Grangeon, née le 6 mars 1921 à Châteauneuf-de-Galaure (Drôme) et morte le 25 janvier 2003 à Montpellier[1], est un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Pierjean, de son vrai nom Marie-Louise Robert épouse Grangeon, née le 6 mars 1921 à Châteauneuf-de-Galaure (Drôme) et morte le 25 janvier 2003 à Montpellier, est un écrivain français.
 Elle est l'auteur d'une quarantaine d'ouvrages pour la jeunesse dont le roman Marika qui a été distingué par le prix du Salon de l’enfance.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née dans la Drôme à Châteauneuf de Galaure, elle a vécu son enfance à Saint-Avit. Eprise de cette région, Marie-Louise Robert s'installe à Crest où, devenue Mme Grangeon, elle a trois enfants : Jean, Pierre et Anne. Elle enseigne pendant vingt ans dans des classes laïques qu'elle doit quitter prématurément et à regret, pour des raisons de santé.
 Sous le nom de plume d'Anne Pierjean, elle se consacre alors à l'écriture d'ouvrages pour la jeunesse. Elle a créé ce pseudonyme en assemblant les prénoms de ses trois enfants : Anne, Pierre et Jean.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mon cousin Luc, (1966)
 Les Aventures de Claudinet, (1967)
@@ -617,7 +633,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du Salon de l’enfance  en 1972 pour le roman Marika.</t>
         </is>
@@ -647,9 +665,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une école maternelle de la ville de Crest porte son nom[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une école maternelle de la ville de Crest porte son nom.
 </t>
         </is>
       </c>
